--- a/results/tra_val_results/df_cross_trainging_09_01.xlsx
+++ b/results/tra_val_results/df_cross_trainging_09_01.xlsx
@@ -621,7 +621,7 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6920313835144043</v>
+        <v>0.6919618844985962</v>
       </c>
       <c r="M2" t="n">
         <v>0.5614500641822815</v>
@@ -639,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6947674751281738</v>
+        <v>0.6943677067756653</v>
       </c>
       <c r="S2" t="n">
         <v>0.5833333134651184</v>
@@ -648,7 +648,7 @@
         <v>0.5703791379928589</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6920313835144043</v>
+        <v>0.6919618844985962</v>
       </c>
       <c r="Y2" t="n">
         <v>0.5543766617774963</v>
@@ -666,7 +666,7 @@
         <v>0.572294294834137</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6968307495117188</v>
+        <v>0.696497917175293</v>
       </c>
       <c r="AB2" t="n">
         <v>0.567460298538208</v>
@@ -716,7 +716,7 @@
         <v>100</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6836715340614319</v>
+        <v>0.6837335228919983</v>
       </c>
       <c r="M3" t="n">
         <v>0.5792494416236877</v>
@@ -734,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6943551898002625</v>
+        <v>0.6937435865402222</v>
       </c>
       <c r="S3" t="n">
         <v>0.5740740895271301</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6846234202384949</v>
+        <v>0.6847077012062073</v>
       </c>
       <c r="Y3" t="n">
         <v>0.5757174491882324</v>
@@ -761,7 +761,7 @@
         <v>0.5946907997131348</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6956995725631714</v>
+        <v>0.6949049830436707</v>
       </c>
       <c r="AB3" t="n">
         <v>0.5370370149612427</v>
@@ -783,7 +783,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.6878514587879181</v>
+        <v>0.6878477036952972</v>
       </c>
       <c r="M4" t="n">
         <v>0.5703497529029846</v>
@@ -801,7 +801,7 @@
         <v>16.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6945613324642181</v>
+        <v>0.6940556466579437</v>
       </c>
       <c r="S4" t="n">
         <v>0.5787037014961243</v>
@@ -810,7 +810,7 @@
         <v>0.5538825988769531</v>
       </c>
       <c r="U4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V4" t="n">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6883274018764496</v>
+        <v>0.6883347928524017</v>
       </c>
       <c r="Y4" t="n">
         <v>0.5650470554828644</v>
@@ -828,7 +828,7 @@
         <v>0.5834925472736359</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6962651610374451</v>
+        <v>0.6957014501094818</v>
       </c>
       <c r="AB4" t="n">
         <v>0.5522486567497253</v>
